--- a/工作代码/每日报表/以前文件/发电量数据分析.xlsx
+++ b/工作代码/每日报表/以前文件/发电量数据分析.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA065916-D3C5-4307-A880-34926BE48CC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD1FD34-50B7-44B9-A0CD-97B89CFE57A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1824" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,13 @@
   </si>
   <si>
     <t>燃料消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料不足</t>
+  </si>
+  <si>
+    <t>燃料不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +493,7 @@
   <dimension ref="A1:M551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,7 +503,7 @@
     <col min="4" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,6 +596,18 @@
       <c r="B3" s="1">
         <v>43447</v>
       </c>
+      <c r="C3">
+        <v>2904700.9999999995</v>
+      </c>
+      <c r="D3">
+        <v>50292176.999999963</v>
+      </c>
+      <c r="E3">
+        <v>1306777738.0000002</v>
+      </c>
+      <c r="F3">
+        <v>614299.99999998882</v>
+      </c>
       <c r="G3">
         <v>14</v>
       </c>
@@ -597,6 +616,18 @@
       </c>
       <c r="I3" t="s">
         <v>20</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3467,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421E3397-11E4-497C-9EE1-F850CF871F78}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3549,6 +3580,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/以前文件/发电量数据分析.xlsx
+++ b/工作代码/每日报表/以前文件/发电量数据分析.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD1FD34-50B7-44B9-A0CD-97B89CFE57A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3FBC6C-D7C1-4D27-A283-C191E7EA62D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2736" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,9 @@
   <si>
     <t>燃料不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:M551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -630,39 +633,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>43448</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3027658.9999999991</v>
+      </c>
+      <c r="D4">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E4">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F4">
+        <v>637200.00000001118</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>43449</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E5">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>43450</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E6">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>43451</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -670,7 +778,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -678,7 +786,7 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -686,7 +794,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -694,7 +802,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -702,7 +810,7 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -710,7 +818,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -718,7 +826,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -726,7 +834,7 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -734,7 +842,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -742,7 +850,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -750,7 +858,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -758,7 +866,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -766,7 +874,7 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -774,7 +882,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -782,7 +890,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>

--- a/工作代码/每日报表/以前文件/发电量数据分析.xlsx
+++ b/工作代码/每日报表/以前文件/发电量数据分析.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3FBC6C-D7C1-4D27-A283-C191E7EA62D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF05DBC-E2BD-4268-B4FD-B48DB67D9F98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2736" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3192" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:M551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J9" activeCellId="1" sqref="G7 J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -763,11 +763,38 @@
       <c r="B7" s="1">
         <v>43451</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E7">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
       <c r="H7" t="s">
         <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/以前文件/发电量数据分析.xlsx
+++ b/工作代码/每日报表/以前文件/发电量数据分析.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF05DBC-E2BD-4268-B4FD-B48DB67D9F98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1817CDF2-5B65-476E-B970-B919EE1D8629}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3192" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3648" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:M551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" activeCellId="1" sqref="G7 J9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -804,6 +804,39 @@
       <c r="B8" s="1">
         <v>43452</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E8">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -811,6 +844,39 @@
       </c>
       <c r="B9" s="1">
         <v>43453</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E9">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/以前文件/发电量数据分析.xlsx
+++ b/工作代码/每日报表/以前文件/发电量数据分析.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1817CDF2-5B65-476E-B970-B919EE1D8629}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CBDDFE-FDC3-4240-B7AD-798D3C2A202A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3648" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4104" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>周末</t>
+  </si>
+  <si>
+    <t>法定节假日</t>
+  </si>
+  <si>
+    <t>下发电量不足</t>
   </si>
 </sst>
 </file>
@@ -495,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -886,6 +892,39 @@
       <c r="B10" s="1">
         <v>43454</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E10">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -894,6 +933,39 @@
       <c r="B11" s="1">
         <v>43455</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E11">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -902,6 +974,39 @@
       <c r="B12" s="1">
         <v>43456</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E12">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -910,6 +1015,39 @@
       <c r="B13" s="1">
         <v>43457</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E13">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -918,6 +1056,39 @@
       <c r="B14" s="1">
         <v>43458</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E14">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -926,6 +1097,39 @@
       <c r="B15" s="1">
         <v>43459</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E15">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -934,72 +1138,345 @@
       <c r="B16" s="1">
         <v>43460</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E16">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>43461</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E17">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>43462</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E18">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>43463</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E19">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>43464</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E20">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>53319835.999999963</v>
+      </c>
+      <c r="E21">
+        <v>1309805397.0000002</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>43466</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>43467</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>43468</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1007,7 +1484,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1015,32 +1492,32 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
